--- a/assets/disciplinas/LOQ4209.xlsx
+++ b/assets/disciplinas/LOQ4209.xlsx
@@ -28,7 +28,7 @@
     <t>Nome:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Engenharia da Qualidade I</t>
+    <t xml:space="preserve"> Engenharia da Qualidade</t>
   </si>
   <si>
     <t>Name:</t>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-8,EM-9,EB-7,EP-7,EQD-7,EQN-8</t>
+    <t>EF-8,EM-9,EB-5,EP-7,EQD-7,EQN-8</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -151,7 +151,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1012 -  Estatística  (Requisito)
+    <t xml:space="preserve">LOB1012 -  Estatística  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOQ4209.xlsx
+++ b/assets/disciplinas/LOQ4209.xlsx
@@ -34,7 +34,7 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Quality Engineering I</t>
+    <t>Quality Engineering</t>
   </si>
   <si>
     <t>Créditos-aula:</t>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>

--- a/assets/disciplinas/LOQ4209.xlsx
+++ b/assets/disciplinas/LOQ4209.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Desenvolver no aluno senso crítico em Gestão Sistêmica, Qualidade Total, Certificação Internacional da Qualidade, no contexto Classe Mundial.</t>
+    <t>5840535 - Messias Borges Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840535 - Messias Borges Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1 - Filosofia, conceitos básicos. 2 - Ferramentas da gestão pela qualidade total. 3 - Sistemas de garantia da qualidade.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1 - FILOSOFIA, CONCEITOS BÁSICOS.Definição de Qualidade. Competitividade. Histórico da Qualidade.  Benefícios Internos e Externos da Qualidade. A Gestão pela Qualidade Total (TQC, CWQC, Toyota, TQM, BSC, 6 Sigma e Lean 6 Sigma)2 - FERRAMENTAS DA GESTÃO PELA QUALIDADE TOTAL.Gestão da rotina: MASP, Brainstorming, Fluxogramas, PDCA e SDCA, Unidades Gerenciais Básicas, Programa 5S, Procedimentos Operacionais e Instruções de Trabalho, Auditorias Internas, Programa de Educação, Reuniões Relâmpago, Administração Visível, Monitoração de Clientes, Grupos Kaizen.3 -SISTEMAS DE GARANTIA DA QUALIDADE: Sistemas de Certificação: ISO (9001, 14001, 17025 e 65), SA 8000, OHSAS 18000Metodologia de implantação, documentação, requisitos, participação da alta administração, gerência média e instâncias operacionais.Pré-auditoria, auditoria de certificação, auditorias de manutenção.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,37 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Provas, relatórios e apresentação de seminários.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = (0,7*P&amp;R + 0,3*S), onde P&amp;R= Prova e relatórios e S= Seminário.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>É feita sob a forma de uma prova, com toda a matéria dada, com duas horas de duração, aplicada no período determinado pela USP. A média final será a média aritmética entre a nota desta prova e a média obtida no semestre.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ASSOCIAÇÃO BRASILEIRA DE NORMAS TÉCNICAS. Gestão da qualidade e garantia da qualidade - terminologia - NBR ISO 8402. Rio de Janeiro: ABNT, 1994a. 15 p.
-BRUE G., Six Sigma for Managers, McGrawHill, New York, 2005.
-EUTACHEM. 1995. Quantifying Uncertainty in Analytical Measurement. Londres. 92 p.
-KUME, H. (Tradução Miyake, D.I.). 1993. Métodos Estatísticos para Melhoria da Qualidade. São Paulo. Editora Gente, 245 p.
-HARRY, M. , LINSENMANND.R., The Six Sigma Fieldbook, Doubleday, New York, 2006
-ISHIKAWA, K. Guide to quality control. Tokyo: Kraus Asian Productivity Organization, 1982. 221p.
-JURAN, J.M.; GRYNA, F.M. Juran controle da qualidade: métodos especiais de apoio à qualidade. São Paulo: Makron Books, 1993. 193p. 
-LIKER, K. &amp; MEIER D. O Modelo Toyota, Manual de Aplicação. Porto Alegre: Bookman, 2007. 432p.
-MARANHÃO, M. ISO Série 9000-Guia de Implementação, Qualitymark, Rio de Janeiro, 2001, 220p
-MONTGOMERY, D.C. 1991. Introduction to Statistical Quality Control. New York. John Wiley &amp; Sons Inc., 674 p.
-OAKLAND, J.S. (Tradução PEREIRA, A.G.). 1994. Gerenciamento da Qualidade Total. São Paulo. Nobel, 501 p.
-TURBAN, E. &amp; RAINER, R. K. &amp; PORTTER, R. E. Introdução a Sistemas de Informação uma Abordagem Gerencial. São Paulo: Editora Campus. 2007, 457p.
-VIEIRA, S. Estatística para qualidade. Rio de Janeiro: Campus, 1997. 472p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -508,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -680,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4209.xlsx
+++ b/assets/disciplinas/LOQ4209.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Desenvolver no aluno senso crítico em Gestão Sistêmica, Qualidade Total, Certificação Internacional da Qualidade, no contexto Classe Mundial.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Bring students to develop a critical sense in Quality International Certification, Total Quality, Sistemic Management in the World Class context.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840535 - Messias Borges Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Bring students to develop a critical sense in Quality International Certification, Total Quality, Sistemic Management in the World Class context.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1 - Filosofia, conceitos básicos. 2 - Ferramentas da gestão pela qualidade total. 3 - Sistemas de garantia da qualidade.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1 - FILOSOFIA, CONCEITOS BÁSICOS.Definição de Qualidade. Competitividade. Histórico da Qualidade.  Benefícios Internos e Externos da Qualidade. A Gestão pela Qualidade Total (TQC, CWQC, Toyota, TQM, BSC, 6 Sigma e Lean 6 Sigma)2 - FERRAMENTAS DA GESTÃO PELA QUALIDADE TOTAL.Gestão da rotina: MASP, Brainstorming, Fluxogramas, PDCA e SDCA, Unidades Gerenciais Básicas, Programa 5S, Procedimentos Operacionais e Instruções de Trabalho, Auditorias Internas, Programa de Educação, Reuniões Relâmpago, Administração Visível, Monitoração de Clientes, Grupos Kaizen.3 -SISTEMAS DE GARANTIA DA QUALIDADE: Sistemas de Certificação: ISO (9001, 14001, 17025 e 65), SA 8000, OHSAS 18000Metodologia de implantação, documentação, requisitos, participação da alta administração, gerência média e instâncias operacionais.Pré-auditoria, auditoria de certificação, auditorias de manutenção.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,37 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Provas, relatórios e apresentação de seminários.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Provas, relatórios e apresentação de seminários.</t>
+    <t>MF = (0,7*P&amp;R + 0,3*S), onde P&amp;R= Prova e relatórios e S= Seminário.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = (0,7*P&amp;R + 0,3*S), onde P&amp;R= Prova e relatórios e S= Seminário.</t>
+    <t>É feita sob a forma de uma prova, com toda a matéria dada, com duas horas de duração, aplicada no período determinado pela USP. A média final será a média aritmética entre a nota desta prova e a média obtida no semestre.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>É feita sob a forma de uma prova, com toda a matéria dada, com duas horas de duração, aplicada no período determinado pela USP. A média final será a média aritmética entre a nota desta prova e a média obtida no semestre.</t>
+    <t>ASSOCIAÇÃO BRASILEIRA DE NORMAS TÉCNICAS. Gestão da qualidade e garantia da qualidade - terminologia - NBR ISO 8402. Rio de Janeiro: ABNT, 1994a. 15 p.
+BRUE G., Six Sigma for Managers, McGrawHill, New York, 2005.
+EUTACHEM. 1995. Quantifying Uncertainty in Analytical Measurement. Londres. 92 p.
+KUME, H. (Tradução Miyake, D.I.). 1993. Métodos Estatísticos para Melhoria da Qualidade. São Paulo. Editora Gente, 245 p.
+HARRY, M. , LINSENMANND.R., The Six Sigma Fieldbook, Doubleday, New York, 2006
+ISHIKAWA, K. Guide to quality control. Tokyo: Kraus Asian Productivity Organization, 1982. 221p.
+JURAN, J.M.; GRYNA, F.M. Juran controle da qualidade: métodos especiais de apoio à qualidade. São Paulo: Makron Books, 1993. 193p. 
+LIKER, K. &amp; MEIER D. O Modelo Toyota, Manual de Aplicação. Porto Alegre: Bookman, 2007. 432p.
+MARANHÃO, M. ISO Série 9000-Guia de Implementação, Qualitymark, Rio de Janeiro, 2001, 220p
+MONTGOMERY, D.C. 1991. Introduction to Statistical Quality Control. New York. John Wiley &amp; Sons Inc., 674 p.
+OAKLAND, J.S. (Tradução PEREIRA, A.G.). 1994. Gerenciamento da Qualidade Total. São Paulo. Nobel, 501 p.
+TURBAN, E. &amp; RAINER, R. K. &amp; PORTTER, R. E. Introdução a Sistemas de Informação uma Abordagem Gerencial. São Paulo: Editora Campus. 2007, 457p.
+VIEIRA, S. Estatística para qualidade. Rio de Janeiro: Campus, 1997. 472p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +639,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +680,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
